--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2231765.797414328</v>
+        <v>2225190.085155694</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4895991.679432718</v>
+        <v>4895991.679432716</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963985.3264850873</v>
+        <v>963985.3264850872</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="F2" t="n">
-        <v>232.3303155802432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.23921687579553</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>113.4987843463085</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,16 +946,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>58.39471844666277</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>88.91888512441756</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>99.52914681518099</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>175.0426595591498</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>233.3820099375147</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.7199449839862</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>62.13484214871502</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I11" t="n">
-        <v>59.0276125328491</v>
+        <v>59.02761253284999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.93275153075003</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2288502284178</v>
+        <v>65.83938142279126</v>
       </c>
       <c r="H13" t="n">
         <v>146.5602426058027</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1663,7 +1663,7 @@
         <v>205.8994334372419</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381858</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.05405755054368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.0616579482369</v>
+        <v>31.95915325776007</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T16" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8994334372419</v>
+        <v>205.8994334372437</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0313837381858</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>53.68651656996464</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I19" t="n">
         <v>102.4584461802083</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>122.9639727145828</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,10 +2134,10 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8994334372419</v>
+        <v>205.8994334372427</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0313837381846</v>
+        <v>251.031383738184</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>128.8575663780922</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2288502284178</v>
+        <v>89.59542525379143</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T22" t="n">
         <v>220.4164922362883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2371,7 +2371,7 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8994334372427</v>
+        <v>205.8994334372419</v>
       </c>
       <c r="U23" t="n">
         <v>251.0313837381849</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>166.2288502284178</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.21798815075887</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.4164922362883</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>74.7751904151348</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.2288502284178</v>
       </c>
       <c r="H28" t="n">
-        <v>146.5602426058027</v>
+        <v>124.9504032792263</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T28" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U28" t="n">
-        <v>221.6785056719237</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>68.38090596406524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.3074931070766</v>
+        <v>148.6292199803846</v>
       </c>
       <c r="T31" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H32" t="n">
-        <v>299.2434379445492</v>
+        <v>299.2434379445495</v>
       </c>
       <c r="I32" t="n">
         <v>59.02761253284899</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>146.5602426058027</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>193.3074931070766</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V34" t="n">
-        <v>181.4221229951913</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>34.01438367016979</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>205.8994334372419</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>193.3074931070766</v>
       </c>
       <c r="T37" t="n">
-        <v>134.3628180349628</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U37" t="n">
         <v>286.222913222125</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>120.0188233319983</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>205.8994334372419</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381858</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.5602426058027</v>
+        <v>93.87054233912305</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>98.0616579482369</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T40" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U40" t="n">
-        <v>183.2638989786184</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.3743728944864</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>46.90189299727474</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I43" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.222913222125</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>205.9747277426183</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H44" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I44" t="n">
-        <v>59.02761253284899</v>
+        <v>59.0276125328491</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.27232498765026</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.38042048420627</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.4769954460863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C2" t="n">
-        <v>509.4769954460863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D2" t="n">
-        <v>509.4769954460863</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E2" t="n">
-        <v>509.4769954460863</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X2" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.4769954460863</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>372.6384501595139</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C3" t="n">
-        <v>372.6384501595139</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>46.53953523349898</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>372.6384501595139</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y3" t="n">
-        <v>372.6384501595139</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>353.3011080883284</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>109.8523314442283</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.8523314442283</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>517.4848137278872</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="C8" t="n">
-        <v>517.4848137278872</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="D8" t="n">
-        <v>517.4848137278872</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="E8" t="n">
-        <v>517.4848137278872</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>510.5393129786837</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>253.4863644856259</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.701876211743</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.739359271332</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664581</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066337</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6995032767284</v>
+        <v>873.6995032767293</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1698336863381</v>
+        <v>458.169833686339</v>
       </c>
       <c r="H11" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524509</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J11" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026619</v>
       </c>
       <c r="K11" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L11" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M11" t="n">
-        <v>2538.512228871288</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N11" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659707</v>
       </c>
       <c r="O11" t="n">
-        <v>4242.766534225867</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P11" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602948</v>
       </c>
       <c r="Q11" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459339</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.994185458402</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.284629101619</v>
+        <v>4693.28462910162</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407437</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.738349126442</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782871</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512757</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251677</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275865</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.1135818748972</v>
+        <v>972.1135818748975</v>
       </c>
       <c r="C12" t="n">
-        <v>797.6605525937703</v>
+        <v>797.6605525937705</v>
       </c>
       <c r="D12" t="n">
-        <v>648.726142932519</v>
+        <v>648.7261429325192</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4886879270636</v>
+        <v>489.4886879270637</v>
       </c>
       <c r="F12" t="n">
         <v>342.9541299539486</v>
@@ -5117,28 +5117,28 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J12" t="n">
         <v>167.3045479414941</v>
       </c>
       <c r="K12" t="n">
-        <v>375.9000387887849</v>
+        <v>366.8518364815409</v>
       </c>
       <c r="L12" t="n">
-        <v>1057.67047690138</v>
+        <v>681.4903327437114</v>
       </c>
       <c r="M12" t="n">
-        <v>1444.195629672487</v>
+        <v>1068.015485514818</v>
       </c>
       <c r="N12" t="n">
-        <v>1855.359598011705</v>
+        <v>1479.179453854036</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.274506442037</v>
+        <v>1833.094362284369</v>
       </c>
       <c r="P12" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.025026013057</v>
@@ -5156,7 +5156,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V12" t="n">
-        <v>1810.178074593653</v>
+        <v>1810.178074593654</v>
       </c>
       <c r="W12" t="n">
         <v>1555.940717865452</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1129.577705730147</v>
+        <v>583.2545213934409</v>
       </c>
       <c r="C13" t="n">
-        <v>960.6415228022404</v>
+        <v>414.318338465534</v>
       </c>
       <c r="D13" t="n">
-        <v>810.5248833899046</v>
+        <v>414.318338465534</v>
       </c>
       <c r="E13" t="n">
-        <v>662.6117898075115</v>
+        <v>414.318338465534</v>
       </c>
       <c r="F13" t="n">
-        <v>515.7218423096011</v>
+        <v>414.318338465534</v>
       </c>
       <c r="G13" t="n">
-        <v>347.8139127859468</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H13" t="n">
         <v>199.7732636891764</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J13" t="n">
         <v>127.1909995926189</v>
@@ -5223,28 +5223,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R13" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S13" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="T13" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="U13" t="n">
-        <v>1369.62054100266</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="V13" t="n">
-        <v>1369.62054100266</v>
+        <v>1503.102286302189</v>
       </c>
       <c r="W13" t="n">
-        <v>1369.62054100266</v>
+        <v>1213.685116265228</v>
       </c>
       <c r="X13" t="n">
-        <v>1141.630990104642</v>
+        <v>985.6955653672107</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.630990104642</v>
+        <v>764.9029862236806</v>
       </c>
     </row>
     <row r="14">
@@ -5275,40 +5275,40 @@
         <v>155.9037347524499</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026619</v>
       </c>
       <c r="K14" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L14" t="n">
-        <v>1330.198741991453</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M14" t="n">
-        <v>2230.062958907874</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N14" t="n">
-        <v>3129.855922087263</v>
+        <v>2854.604825659707</v>
       </c>
       <c r="O14" t="n">
-        <v>3934.317264262452</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602948</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459339</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.994185458402</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.284629101619</v>
+        <v>4693.28462910162</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407437</v>
       </c>
       <c r="U14" t="n">
         <v>4231.738349126441</v>
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>972.1135818748972</v>
+        <v>972.1135818748975</v>
       </c>
       <c r="C15" t="n">
-        <v>797.6605525937703</v>
+        <v>797.6605525937705</v>
       </c>
       <c r="D15" t="n">
-        <v>648.726142932519</v>
+        <v>648.7261429325192</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4886879270636</v>
+        <v>489.4886879270637</v>
       </c>
       <c r="F15" t="n">
         <v>342.9541299539486</v>
@@ -5354,7 +5354,7 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J15" t="n">
         <v>167.3045479414941</v>
@@ -5375,7 +5375,7 @@
         <v>1833.094362284369</v>
       </c>
       <c r="P15" t="n">
-        <v>2413.087352699456</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025026013057</v>
@@ -5393,7 +5393,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V15" t="n">
-        <v>1810.178074593653</v>
+        <v>1810.178074593654</v>
       </c>
       <c r="W15" t="n">
         <v>1555.940717865452</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8923732330774</v>
+        <v>246.3965231215038</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8923732330774</v>
+        <v>246.3965231215038</v>
       </c>
       <c r="D16" t="n">
-        <v>662.4842342931343</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="E16" t="n">
-        <v>514.5711407107411</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="F16" t="n">
-        <v>367.6811932128307</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="G16" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="H16" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J16" t="n">
         <v>127.1909995926189</v>
@@ -5460,28 +5460,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.734594762382</v>
+        <v>1725.504801520439</v>
       </c>
       <c r="S16" t="n">
-        <v>1658.734594762382</v>
+        <v>1530.244707472887</v>
       </c>
       <c r="T16" t="n">
-        <v>1436.091673311586</v>
+        <v>1307.601786022091</v>
       </c>
       <c r="U16" t="n">
-        <v>1436.091673311586</v>
+        <v>1018.487732262369</v>
       </c>
       <c r="V16" t="n">
-        <v>1436.091673311586</v>
+        <v>763.8032440564817</v>
       </c>
       <c r="W16" t="n">
-        <v>1146.674503274625</v>
+        <v>474.3860740195211</v>
       </c>
       <c r="X16" t="n">
-        <v>918.6849523766075</v>
+        <v>246.3965231215038</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8923732330774</v>
+        <v>246.3965231215038</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.701876211741</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D17" t="n">
         <v>1670.47366066458</v>
@@ -5503,64 +5503,64 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6995032767284</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G17" t="n">
-        <v>458.169833686338</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H17" t="n">
         <v>155.9037347524499</v>
       </c>
       <c r="I17" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026619</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8460144959279</v>
+        <v>789.91820994803</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.648011954867</v>
+        <v>1583.72020740697</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.512228871288</v>
+        <v>2483.584424323391</v>
       </c>
       <c r="N17" t="n">
-        <v>3438.305192050678</v>
+        <v>3383.37738750278</v>
       </c>
       <c r="O17" t="n">
-        <v>4242.766534225867</v>
+        <v>4187.838729677969</v>
       </c>
       <c r="P17" t="n">
-        <v>4583.232025030504</v>
+        <v>4518.172769356253</v>
       </c>
       <c r="Q17" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459339</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.994185458402</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.284629101619</v>
+        <v>4693.28462910162</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U17" t="n">
         <v>4231.73834912644</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W17" t="n">
         <v>3547.906806512755</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.301716275863</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>972.1135818748972</v>
+        <v>972.1135818748975</v>
       </c>
       <c r="C18" t="n">
-        <v>797.6605525937703</v>
+        <v>797.6605525937705</v>
       </c>
       <c r="D18" t="n">
-        <v>648.726142932519</v>
+        <v>648.7261429325192</v>
       </c>
       <c r="E18" t="n">
-        <v>489.4886879270636</v>
+        <v>489.4886879270637</v>
       </c>
       <c r="F18" t="n">
         <v>342.9541299539486</v>
@@ -5591,28 +5591,28 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I18" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K18" t="n">
-        <v>366.8518364815409</v>
+        <v>743.0319806392095</v>
       </c>
       <c r="L18" t="n">
-        <v>681.4903327437114</v>
+        <v>1057.67047690138</v>
       </c>
       <c r="M18" t="n">
-        <v>1068.015485514818</v>
+        <v>1444.195629672487</v>
       </c>
       <c r="N18" t="n">
-        <v>1479.179453854036</v>
+        <v>1855.359598011705</v>
       </c>
       <c r="O18" t="n">
-        <v>1833.094362284369</v>
+        <v>2209.274506442037</v>
       </c>
       <c r="P18" t="n">
-        <v>2413.087352699456</v>
+        <v>2473.989355903587</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.025026013057</v>
@@ -5630,7 +5630,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V18" t="n">
-        <v>1810.178074593653</v>
+        <v>1810.178074593654</v>
       </c>
       <c r="W18" t="n">
         <v>1555.940717865452</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.6225401994765</v>
+        <v>738.886829853634</v>
       </c>
       <c r="C19" t="n">
-        <v>347.6863572715695</v>
+        <v>569.9506469257271</v>
       </c>
       <c r="D19" t="n">
-        <v>347.6863572715695</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="E19" t="n">
-        <v>199.7732636891764</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="F19" t="n">
-        <v>199.7732636891764</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7732636891764</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H19" t="n">
         <v>199.7732636891764</v>
       </c>
       <c r="I19" t="n">
-        <v>96.27988370916803</v>
+        <v>96.27988370916805</v>
       </c>
       <c r="J19" t="n">
         <v>127.1909995926189</v>
@@ -5697,28 +5697,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R19" t="n">
-        <v>1757.786774508076</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.526680460523</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="T19" t="n">
-        <v>1339.883759009727</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="U19" t="n">
-        <v>1215.677725964694</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="V19" t="n">
-        <v>1215.677725964694</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="W19" t="n">
-        <v>926.2605559277335</v>
+        <v>1369.317424725421</v>
       </c>
       <c r="X19" t="n">
-        <v>698.2710050297162</v>
+        <v>1141.327873827404</v>
       </c>
       <c r="Y19" t="n">
-        <v>698.2710050297162</v>
+        <v>920.5352946838738</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K20" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L20" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M20" t="n">
-        <v>2538.512228871288</v>
+        <v>2387.78531764818</v>
       </c>
       <c r="N20" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O20" t="n">
-        <v>4242.766534225867</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P20" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R20" t="n">
         <v>4813.994185458401</v>
@@ -5782,7 +5782,7 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U20" t="n">
         <v>4231.738349126441</v>
@@ -5831,16 +5831,16 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K21" t="n">
-        <v>366.8518364815409</v>
+        <v>743.0319806392095</v>
       </c>
       <c r="L21" t="n">
-        <v>681.4903327437114</v>
+        <v>1057.67047690138</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.015485514818</v>
+        <v>1444.195629672487</v>
       </c>
       <c r="N21" t="n">
         <v>1855.359598011705</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.2600647728844</v>
+        <v>355.7164961863592</v>
       </c>
       <c r="C22" t="n">
-        <v>412.1009068152155</v>
+        <v>186.7803132584523</v>
       </c>
       <c r="D22" t="n">
-        <v>412.1009068152155</v>
+        <v>186.7803132584523</v>
       </c>
       <c r="E22" t="n">
-        <v>264.1878132328224</v>
+        <v>186.7803132584523</v>
       </c>
       <c r="F22" t="n">
-        <v>264.1878132328224</v>
+        <v>186.7803132584523</v>
       </c>
       <c r="G22" t="n">
         <v>96.27988370916803</v>
@@ -5934,28 +5934,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R22" t="n">
-        <v>1757.786774508076</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="S22" t="n">
-        <v>1757.786774508076</v>
+        <v>1463.47450071483</v>
       </c>
       <c r="T22" t="n">
-        <v>1535.14385305728</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U22" t="n">
-        <v>1535.14385305728</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="V22" t="n">
-        <v>1280.459364851393</v>
+        <v>986.1470910581464</v>
       </c>
       <c r="W22" t="n">
-        <v>991.0421948144319</v>
+        <v>986.1470910581464</v>
       </c>
       <c r="X22" t="n">
-        <v>763.0526439164146</v>
+        <v>758.1575401601291</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.2600647728844</v>
+        <v>537.364961016599</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2397.701876211742</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D23" t="n">
         <v>1670.47366066458</v>
@@ -5992,25 +5992,25 @@
         <v>414.5309736026618</v>
       </c>
       <c r="K23" t="n">
-        <v>691.3477050708277</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L23" t="n">
-        <v>1485.149702529767</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M23" t="n">
-        <v>2385.013919446188</v>
+        <v>2387.78531764818</v>
       </c>
       <c r="N23" t="n">
-        <v>3284.806882625578</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O23" t="n">
-        <v>4089.268224800767</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P23" t="n">
-        <v>4419.60226447905</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q23" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R23" t="n">
         <v>4813.994185458401</v>
@@ -6019,16 +6019,16 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X23" t="n">
         <v>3174.441048251676</v>
@@ -6068,13 +6068,13 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K24" t="n">
-        <v>366.8518364815409</v>
+        <v>743.0319806392095</v>
       </c>
       <c r="L24" t="n">
-        <v>681.4903327437114</v>
+        <v>1057.67047690138</v>
       </c>
       <c r="M24" t="n">
         <v>1444.195629672487</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.5248833899046</v>
+        <v>730.1305830709754</v>
       </c>
       <c r="C25" t="n">
-        <v>810.5248833899046</v>
+        <v>561.1944001430685</v>
       </c>
       <c r="D25" t="n">
-        <v>810.5248833899046</v>
+        <v>411.0777607307327</v>
       </c>
       <c r="E25" t="n">
-        <v>662.6117898075115</v>
+        <v>411.0777607307327</v>
       </c>
       <c r="F25" t="n">
-        <v>515.7218423096011</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G25" t="n">
-        <v>347.8139127859468</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H25" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I25" t="n">
         <v>96.27988370916803</v>
@@ -6171,28 +6171,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R25" t="n">
-        <v>1711.101937992158</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="S25" t="n">
-        <v>1515.841843944605</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="T25" t="n">
-        <v>1293.198922493809</v>
+        <v>1436.091673311586</v>
       </c>
       <c r="U25" t="n">
-        <v>1293.198922493809</v>
+        <v>1436.091673311586</v>
       </c>
       <c r="V25" t="n">
-        <v>1038.514434287922</v>
+        <v>1360.561177942762</v>
       </c>
       <c r="W25" t="n">
-        <v>1038.514434287922</v>
+        <v>1360.561177942762</v>
       </c>
       <c r="X25" t="n">
-        <v>810.5248833899046</v>
+        <v>1132.571627044745</v>
       </c>
       <c r="Y25" t="n">
-        <v>810.5248833899046</v>
+        <v>911.7790479012151</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F26" t="n">
-        <v>873.6995032767281</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G26" t="n">
         <v>458.1698336863379</v>
@@ -6226,28 +6226,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J26" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K26" t="n">
-        <v>523.9420560504748</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L26" t="n">
-        <v>1317.744053509414</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M26" t="n">
-        <v>2217.608270425835</v>
+        <v>2387.78531764818</v>
       </c>
       <c r="N26" t="n">
-        <v>3117.401233605225</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O26" t="n">
-        <v>3921.862575780414</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P26" t="n">
-        <v>4570.777336548465</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q26" t="n">
-        <v>4770.671696651551</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R26" t="n">
         <v>4813.994185458401</v>
@@ -6305,25 +6305,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J27" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K27" t="n">
-        <v>366.8518364815409</v>
+        <v>535.0554657807189</v>
       </c>
       <c r="L27" t="n">
-        <v>681.4903327437114</v>
+        <v>849.6939620428894</v>
       </c>
       <c r="M27" t="n">
-        <v>1444.195629672487</v>
+        <v>1236.219114813997</v>
       </c>
       <c r="N27" t="n">
-        <v>1855.359598011705</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O27" t="n">
-        <v>2209.274506442037</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P27" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q27" t="n">
         <v>2601.025026013057</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1129.577705730147</v>
+        <v>709.4531641379401</v>
       </c>
       <c r="C28" t="n">
-        <v>960.6415228022404</v>
+        <v>540.5169812100332</v>
       </c>
       <c r="D28" t="n">
-        <v>810.5248833899046</v>
+        <v>390.4003417976975</v>
       </c>
       <c r="E28" t="n">
-        <v>662.6117898075115</v>
+        <v>390.4003417976975</v>
       </c>
       <c r="F28" t="n">
-        <v>515.7218423096011</v>
+        <v>390.4003417976975</v>
       </c>
       <c r="G28" t="n">
-        <v>347.8139127859468</v>
+        <v>222.4924122740431</v>
       </c>
       <c r="H28" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I28" t="n">
         <v>96.27988370916803</v>
@@ -6411,25 +6411,25 @@
         <v>1757.786774508076</v>
       </c>
       <c r="S28" t="n">
-        <v>1757.786774508076</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T28" t="n">
-        <v>1535.14385305728</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U28" t="n">
-        <v>1311.226170560387</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="V28" t="n">
-        <v>1311.226170560387</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="W28" t="n">
-        <v>1311.226170560387</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="X28" t="n">
-        <v>1311.226170560387</v>
+        <v>1111.89420811171</v>
       </c>
       <c r="Y28" t="n">
-        <v>1311.226170560387</v>
+        <v>891.1016289681799</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.701876211741</v>
       </c>
       <c r="C29" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D29" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E29" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F29" t="n">
-        <v>873.699503276729</v>
+        <v>873.6995032767281</v>
       </c>
       <c r="G29" t="n">
-        <v>458.1698336863383</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H29" t="n">
         <v>155.9037347524499</v>
       </c>
       <c r="I29" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J29" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K29" t="n">
-        <v>844.8460144959279</v>
+        <v>789.9182099480282</v>
       </c>
       <c r="L29" t="n">
-        <v>1638.648011954867</v>
+        <v>1583.720207406968</v>
       </c>
       <c r="M29" t="n">
-        <v>2538.512228871288</v>
+        <v>2483.584424323389</v>
       </c>
       <c r="N29" t="n">
-        <v>3438.305192050678</v>
+        <v>3383.377387502778</v>
       </c>
       <c r="O29" t="n">
-        <v>4242.766534225867</v>
+        <v>4187.838729677967</v>
       </c>
       <c r="P29" t="n">
-        <v>4583.232025030504</v>
+        <v>4518.172769356251</v>
       </c>
       <c r="Q29" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459337</v>
       </c>
       <c r="R29" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S29" t="n">
         <v>4693.284629101619</v>
       </c>
       <c r="T29" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U29" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V29" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X29" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251675</v>
       </c>
       <c r="Y29" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275863</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>489.4886879270636</v>
       </c>
       <c r="F30" t="n">
-        <v>342.9541299539486</v>
+        <v>342.9541299539485</v>
       </c>
       <c r="G30" t="n">
         <v>206.3463958216802</v>
       </c>
       <c r="H30" t="n">
-        <v>113.4818523776181</v>
+        <v>113.481852377618</v>
       </c>
       <c r="I30" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J30" t="n">
         <v>292.1346729284988</v>
       </c>
       <c r="K30" t="n">
-        <v>491.6819614685456</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L30" t="n">
-        <v>806.3204577307162</v>
+        <v>806.320457730716</v>
       </c>
       <c r="M30" t="n">
         <v>1192.845610501823</v>
@@ -6560,7 +6560,7 @@
         <v>1957.924487271373</v>
       </c>
       <c r="P30" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q30" t="n">
         <v>2601.025026013057</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.3515058950925</v>
+        <v>433.1239961607292</v>
       </c>
       <c r="C31" t="n">
-        <v>165.3515058950925</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="D31" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="E31" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="F31" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G31" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="H31" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I31" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1909995926189</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K31" t="n">
-        <v>307.824295222306</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L31" t="n">
-        <v>594.4991583642277</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M31" t="n">
-        <v>907.1467298601162</v>
+        <v>907.1467298601161</v>
       </c>
       <c r="N31" t="n">
         <v>1217.794857329368</v>
@@ -6648,25 +6648,25 @@
         <v>1757.786774508076</v>
       </c>
       <c r="S31" t="n">
-        <v>1562.526680460523</v>
+        <v>1607.656249275364</v>
       </c>
       <c r="T31" t="n">
-        <v>1339.883759009727</v>
+        <v>1607.656249275364</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.883759009727</v>
+        <v>1607.656249275364</v>
       </c>
       <c r="V31" t="n">
-        <v>1085.19927080384</v>
+        <v>1352.971761069477</v>
       </c>
       <c r="W31" t="n">
-        <v>795.7821007668797</v>
+        <v>1063.554591032516</v>
       </c>
       <c r="X31" t="n">
-        <v>567.7925498688624</v>
+        <v>835.5650401344991</v>
       </c>
       <c r="Y31" t="n">
-        <v>346.9999707253322</v>
+        <v>614.772460990969</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C32" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D32" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.473660664581</v>
       </c>
       <c r="E32" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066337</v>
       </c>
       <c r="F32" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767295</v>
       </c>
       <c r="G32" t="n">
-        <v>458.1698336863374</v>
+        <v>458.1698336863383</v>
       </c>
       <c r="H32" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I32" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J32" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K32" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L32" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M32" t="n">
-        <v>2538.512228871288</v>
+        <v>2483.58442432339</v>
       </c>
       <c r="N32" t="n">
-        <v>3438.305192050678</v>
+        <v>3383.377387502779</v>
       </c>
       <c r="O32" t="n">
-        <v>4242.766534225867</v>
+        <v>4187.838729677968</v>
       </c>
       <c r="P32" t="n">
-        <v>4583.232025030504</v>
+        <v>4518.172769356252</v>
       </c>
       <c r="Q32" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R32" t="n">
         <v>4813.994185458401</v>
@@ -6730,22 +6730,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T32" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U32" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X32" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y32" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J33" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K33" t="n">
-        <v>366.8518364815409</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L33" t="n">
-        <v>681.4903327437114</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M33" t="n">
-        <v>1068.015485514818</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N33" t="n">
-        <v>1855.359598011705</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O33" t="n">
         <v>2209.274506442037</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>581.1646452574996</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="C34" t="n">
-        <v>412.2284623295927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="D34" t="n">
-        <v>412.2284623295927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2284623295927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="F34" t="n">
-        <v>412.2284623295927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="G34" t="n">
         <v>244.3205328059384</v>
@@ -6882,28 +6882,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R34" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S34" t="n">
-        <v>1463.47450071483</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T34" t="n">
-        <v>1463.47450071483</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U34" t="n">
-        <v>1463.47450071483</v>
+        <v>1050.769705250005</v>
       </c>
       <c r="V34" t="n">
-        <v>1280.219831022717</v>
+        <v>796.0852170441182</v>
       </c>
       <c r="W34" t="n">
-        <v>990.8026609857567</v>
+        <v>506.6680470071576</v>
       </c>
       <c r="X34" t="n">
-        <v>762.8131100877393</v>
+        <v>278.6784961091402</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.8131100877393</v>
+        <v>244.3205328059384</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C35" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D35" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E35" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F35" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767286</v>
       </c>
       <c r="G35" t="n">
-        <v>458.1698336863374</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H35" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I35" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J35" t="n">
-        <v>414.5309736026618</v>
+        <v>247.1253245823088</v>
       </c>
       <c r="K35" t="n">
-        <v>1012.251663516281</v>
+        <v>844.8460144959279</v>
       </c>
       <c r="L35" t="n">
-        <v>1806.05366097522</v>
+        <v>1638.648011954867</v>
       </c>
       <c r="M35" t="n">
-        <v>2260.899479733737</v>
+        <v>2538.512228871288</v>
       </c>
       <c r="N35" t="n">
-        <v>2854.604825659706</v>
+        <v>3438.305192050678</v>
       </c>
       <c r="O35" t="n">
-        <v>3659.066167834895</v>
+        <v>4242.766534225867</v>
       </c>
       <c r="P35" t="n">
-        <v>4307.980928602947</v>
+        <v>4583.232025030504</v>
       </c>
       <c r="Q35" t="n">
-        <v>4718.067129459338</v>
+        <v>4783.12638513359</v>
       </c>
       <c r="R35" t="n">
         <v>4813.994185458401</v>
@@ -6967,22 +6967,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T35" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U35" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V35" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W35" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X35" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y35" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J36" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K36" t="n">
-        <v>366.8518364815409</v>
+        <v>535.0554657807189</v>
       </c>
       <c r="L36" t="n">
-        <v>681.4903327437114</v>
+        <v>849.6939620428894</v>
       </c>
       <c r="M36" t="n">
-        <v>1444.195629672487</v>
+        <v>1236.219114813997</v>
       </c>
       <c r="N36" t="n">
-        <v>1855.359598011705</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O36" t="n">
-        <v>2209.274506442037</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P36" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q36" t="n">
         <v>2601.025026013057</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.05459275541</v>
+        <v>265.216066637075</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1184098275031</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D37" t="n">
-        <v>559.1184098275031</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E37" t="n">
-        <v>559.1184098275031</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F37" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3205328059384</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H37" t="n">
         <v>96.27988370916803</v>
@@ -7125,22 +7125,22 @@
         <v>1562.526680460523</v>
       </c>
       <c r="T37" t="n">
-        <v>1426.806662243389</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U37" t="n">
-        <v>1137.692608483667</v>
+        <v>1050.769705250005</v>
       </c>
       <c r="V37" t="n">
-        <v>1137.692608483667</v>
+        <v>796.0852170441182</v>
       </c>
       <c r="W37" t="n">
-        <v>1137.692608483667</v>
+        <v>674.854082365332</v>
       </c>
       <c r="X37" t="n">
-        <v>909.7030575856497</v>
+        <v>446.8645314673147</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.7030575856497</v>
+        <v>446.8645314673147</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C38" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D38" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E38" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F38" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G38" t="n">
-        <v>458.1698336863374</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H38" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I38" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J38" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K38" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L38" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M38" t="n">
-        <v>2093.493830713384</v>
+        <v>2705.917877891641</v>
       </c>
       <c r="N38" t="n">
-        <v>2993.286793892774</v>
+        <v>3231.597005109824</v>
       </c>
       <c r="O38" t="n">
-        <v>3797.748136067963</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P38" t="n">
-        <v>4446.662896836015</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q38" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R38" t="n">
         <v>4813.994185458401</v>
@@ -7204,22 +7204,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T38" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U38" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V38" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W38" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X38" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y38" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J39" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K39" t="n">
-        <v>375.9000387887849</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L39" t="n">
-        <v>1057.67047690138</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M39" t="n">
-        <v>1444.195629672487</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N39" t="n">
-        <v>1855.359598011705</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O39" t="n">
-        <v>2209.274506442037</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P39" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q39" t="n">
         <v>2601.025026013057</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.1184098275031</v>
+        <v>294.5919933246543</v>
       </c>
       <c r="C40" t="n">
-        <v>559.1184098275031</v>
+        <v>294.5919933246543</v>
       </c>
       <c r="D40" t="n">
-        <v>559.1184098275031</v>
+        <v>294.5919933246543</v>
       </c>
       <c r="E40" t="n">
-        <v>559.1184098275031</v>
+        <v>294.5919933246543</v>
       </c>
       <c r="F40" t="n">
-        <v>412.2284623295927</v>
+        <v>294.5919933246543</v>
       </c>
       <c r="G40" t="n">
-        <v>244.3205328059384</v>
+        <v>294.5919933246543</v>
       </c>
       <c r="H40" t="n">
-        <v>96.27988370916803</v>
+        <v>199.7732636891764</v>
       </c>
       <c r="I40" t="n">
         <v>96.27988370916803</v>
@@ -7359,25 +7359,25 @@
         <v>1658.734594762382</v>
       </c>
       <c r="S40" t="n">
-        <v>1658.734594762382</v>
+        <v>1463.47450071483</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.091673311586</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U40" t="n">
-        <v>1250.976623838234</v>
+        <v>951.717525504311</v>
       </c>
       <c r="V40" t="n">
-        <v>1250.976623838234</v>
+        <v>697.0330372984241</v>
       </c>
       <c r="W40" t="n">
-        <v>961.559453801273</v>
+        <v>697.0330372984241</v>
       </c>
       <c r="X40" t="n">
-        <v>961.559453801273</v>
+        <v>697.0330372984241</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.7668746577428</v>
+        <v>476.240458154894</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J41" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K41" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L41" t="n">
-        <v>1638.648011954867</v>
+        <v>1392.569058570274</v>
       </c>
       <c r="M41" t="n">
-        <v>2538.512228871288</v>
+        <v>1954.811862480316</v>
       </c>
       <c r="N41" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O41" t="n">
-        <v>4242.766534225867</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P41" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q41" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R41" t="n">
         <v>4813.994185458401</v>
@@ -7493,22 +7493,22 @@
         <v>292.1346729284988</v>
       </c>
       <c r="K42" t="n">
-        <v>743.0319806392095</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L42" t="n">
-        <v>1057.67047690138</v>
+        <v>849.6939620428894</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.195629672487</v>
+        <v>1236.219114813997</v>
       </c>
       <c r="N42" t="n">
-        <v>1855.359598011705</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O42" t="n">
-        <v>2209.274506442037</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P42" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q42" t="n">
         <v>2601.025026013057</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.0795097760539</v>
+        <v>858.1763962264845</v>
       </c>
       <c r="C43" t="n">
-        <v>542.0795097760539</v>
+        <v>689.2402132985776</v>
       </c>
       <c r="D43" t="n">
-        <v>542.0795097760539</v>
+        <v>539.1235738862418</v>
       </c>
       <c r="E43" t="n">
-        <v>542.0795097760539</v>
+        <v>391.2104803038487</v>
       </c>
       <c r="F43" t="n">
-        <v>395.1895622781435</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="G43" t="n">
-        <v>347.8139127859468</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="H43" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I43" t="n">
         <v>96.27988370916803</v>
@@ -7593,28 +7593,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R43" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S43" t="n">
-        <v>1463.47450071483</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="T43" t="n">
-        <v>1240.831579264033</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="U43" t="n">
-        <v>951.717525504311</v>
+        <v>1468.672720748353</v>
       </c>
       <c r="V43" t="n">
-        <v>951.717525504311</v>
+        <v>1260.617440200254</v>
       </c>
       <c r="W43" t="n">
-        <v>951.717525504311</v>
+        <v>1260.617440200254</v>
       </c>
       <c r="X43" t="n">
-        <v>723.7279746062936</v>
+        <v>1260.617440200254</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.7279746062936</v>
+        <v>1039.824861056724</v>
       </c>
     </row>
     <row r="44">
@@ -7642,22 +7642,22 @@
         <v>458.1698336863381</v>
       </c>
       <c r="H44" t="n">
-        <v>155.9037347524499</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I44" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J44" t="n">
-        <v>414.5309736026618</v>
+        <v>247.1253245823088</v>
       </c>
       <c r="K44" t="n">
-        <v>1012.251663516281</v>
+        <v>523.9420560504748</v>
       </c>
       <c r="L44" t="n">
-        <v>1806.05366097522</v>
+        <v>1317.744053509414</v>
       </c>
       <c r="M44" t="n">
-        <v>2260.899479733737</v>
+        <v>2165.003703233621</v>
       </c>
       <c r="N44" t="n">
         <v>3064.796666413011</v>
@@ -7727,25 +7727,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J45" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K45" t="n">
-        <v>366.8518364815409</v>
+        <v>743.0319806392095</v>
       </c>
       <c r="L45" t="n">
-        <v>681.4903327437114</v>
+        <v>1057.67047690138</v>
       </c>
       <c r="M45" t="n">
-        <v>1068.015485514818</v>
+        <v>1444.195629672487</v>
       </c>
       <c r="N45" t="n">
-        <v>1479.179453854036</v>
+        <v>1855.359598011705</v>
       </c>
       <c r="O45" t="n">
-        <v>1833.094362284369</v>
+        <v>2209.274506442037</v>
       </c>
       <c r="P45" t="n">
-        <v>2413.087352699456</v>
+        <v>2473.989355903587</v>
       </c>
       <c r="Q45" t="n">
         <v>2601.025026013057</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>804.3502168142094</v>
+        <v>412.1009068152155</v>
       </c>
       <c r="C46" t="n">
-        <v>635.4140338863025</v>
+        <v>412.1009068152155</v>
       </c>
       <c r="D46" t="n">
-        <v>485.2973944739667</v>
+        <v>412.1009068152155</v>
       </c>
       <c r="E46" t="n">
-        <v>337.3843008915736</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="F46" t="n">
-        <v>190.4943533936633</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G46" t="n">
         <v>96.27988370916803</v>
@@ -7830,28 +7830,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R46" t="n">
-        <v>1757.786774508076</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="S46" t="n">
-        <v>1757.786774508076</v>
+        <v>1586.63315992985</v>
       </c>
       <c r="T46" t="n">
-        <v>1757.786774508076</v>
+        <v>1586.63315992985</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.672720748353</v>
+        <v>1586.63315992985</v>
       </c>
       <c r="V46" t="n">
-        <v>1213.988232542466</v>
+        <v>1331.948671723963</v>
       </c>
       <c r="W46" t="n">
-        <v>1213.988232542466</v>
+        <v>1042.531501687003</v>
       </c>
       <c r="X46" t="n">
-        <v>985.9986816444491</v>
+        <v>814.5419507889853</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.9986816444491</v>
+        <v>593.7493716454552</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8698,22 +8698,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>128.167513044893</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>10.23378901651836</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9.139598290145443</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>169.9026558577557</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>15.1797871666698</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>106.096295395486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>128.167513044893</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>169.9026558577557</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.51717495366739</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>15.1797871666698</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>99.56616654262848</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9181,13 +9181,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>10.23378901651836</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>253.8889082531958</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.51717495366739</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>15.1797871666698</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,22 +9409,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448923</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>10.23378901651836</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>253.8889082531958</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448923</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.2825864156102</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>253.8889082531958</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448923</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>12.58049341620037</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>43.81162051734677</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>15.1797871666698</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>99.56616654262666</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10129,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>10.23378901651836</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>253.888908253196</v>
+        <v>43.81162051734702</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>15.1797871666698</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>224.9342874642956</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>10.23378901651836</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>253.8889082531958</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,22 +10594,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>128.1675130448927</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>10.23378901651836</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>43.81162051734677</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>15.1797871666698</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,22 +10831,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>59.45416081480533</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.9486143378682</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>9.139598290145443</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>43.81162051734668</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>15.1797871666698</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>108.4818031833588</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>10.23378901651836</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>253.8889082531958</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>43.8116205173468</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>15.1797871666698</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>396.3776070360509</v>
       </c>
       <c r="N44" t="n">
-        <v>340.4825037047966</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>253.8889082531958</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.51717495366739</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>15.1797871666698</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8992286511873</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>100.3894688056265</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S13" t="n">
         <v>193.3074931070766</v>
@@ -23472,19 +23472,19 @@
         <v>220.4164922362883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>113.5614154676687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H16" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.10250469047682</v>
       </c>
       <c r="S16" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>94.92895644824772</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U19" t="n">
-        <v>163.2589405075423</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>38.3892547205356</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>76.63342497462637</v>
       </c>
       <c r="H22" t="n">
         <v>146.5602426058027</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.84366979747803</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>286.222913222125</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>177.3624529086932</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>21.60983932657635</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>98.0616579482369</v>
       </c>
       <c r="S28" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>64.54440755020133</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.23456705414712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>146.5602426058027</v>
@@ -24888,10 +24888,10 @@
         <v>98.0616579482369</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>44.67827312669198</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U31" t="n">
         <v>286.222913222125</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>70.7155203286367</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>184.570269681925</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I37" t="n">
         <v>102.4584461802083</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>86.05367420132552</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>166.5041750045928</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>52.68970026667962</v>
       </c>
       <c r="I40" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>102.9590142435066</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>119.3269572311431</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>46.16291558120972</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.95652524076753</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>146.5602426058027</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>193.3074931070766</v>
+        <v>121.9270726228704</v>
       </c>
       <c r="T46" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834437.6906930006</v>
+        <v>834437.6906930004</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834437.6906930003</v>
+        <v>834437.6906930004</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834437.6906930003</v>
+        <v>834437.6906930004</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834437.6906930004</v>
+        <v>834437.6906930003</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834437.6906930003</v>
+        <v>834437.6906930004</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834437.6906930003</v>
+        <v>834437.6906930004</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>591681.6942360853</v>
+        <v>591681.6942360852</v>
       </c>
       <c r="F2" t="n">
         <v>591681.6942360854</v>
       </c>
       <c r="G2" t="n">
-        <v>591681.6942360852</v>
+        <v>591681.6942360851</v>
       </c>
       <c r="H2" t="n">
-        <v>591681.6942360853</v>
+        <v>591681.6942360851</v>
       </c>
       <c r="I2" t="n">
-        <v>591681.6942360853</v>
+        <v>591681.6942360851</v>
       </c>
       <c r="J2" t="n">
-        <v>591681.6942360855</v>
+        <v>591681.6942360849</v>
       </c>
       <c r="K2" t="n">
         <v>591681.6942360854</v>
       </c>
       <c r="L2" t="n">
+        <v>591681.6942360853</v>
+      </c>
+      <c r="M2" t="n">
+        <v>591681.6942360849</v>
+      </c>
+      <c r="N2" t="n">
+        <v>591681.6942360852</v>
+      </c>
+      <c r="O2" t="n">
+        <v>591681.6942360852</v>
+      </c>
+      <c r="P2" t="n">
         <v>591681.6942360854</v>
-      </c>
-      <c r="M2" t="n">
-        <v>591681.6942360853</v>
-      </c>
-      <c r="N2" t="n">
-        <v>591681.6942360854</v>
-      </c>
-      <c r="O2" t="n">
-        <v>591681.6942360851</v>
-      </c>
-      <c r="P2" t="n">
-        <v>591681.6942360852</v>
       </c>
     </row>
     <row r="3">
@@ -26426,37 +26426,37 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>46319.07931432886</v>
+        <v>46319.07931432889</v>
       </c>
       <c r="F4" t="n">
-        <v>46319.07931432886</v>
+        <v>46319.07931432889</v>
       </c>
       <c r="G4" t="n">
-        <v>46319.07931432887</v>
+        <v>46319.07931432889</v>
       </c>
       <c r="H4" t="n">
         <v>46319.07931432888</v>
       </c>
       <c r="I4" t="n">
-        <v>46319.07931432889</v>
+        <v>46319.07931432888</v>
       </c>
       <c r="J4" t="n">
-        <v>46319.07931432887</v>
+        <v>46319.07931432888</v>
       </c>
       <c r="K4" t="n">
-        <v>46319.07931432887</v>
+        <v>46319.07931432886</v>
       </c>
       <c r="L4" t="n">
         <v>46319.07931432888</v>
       </c>
       <c r="M4" t="n">
+        <v>46319.07931432887</v>
+      </c>
+      <c r="N4" t="n">
+        <v>46319.07931432888</v>
+      </c>
+      <c r="O4" t="n">
         <v>46319.07931432889</v>
-      </c>
-      <c r="N4" t="n">
-        <v>46319.07931432886</v>
-      </c>
-      <c r="O4" t="n">
-        <v>46319.07931432886</v>
       </c>
       <c r="P4" t="n">
         <v>46319.07931432888</v>
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>94475.25086559013</v>
+        <v>94475.25086559015</v>
       </c>
       <c r="F5" t="n">
-        <v>94475.25086559013</v>
+        <v>94475.25086559015</v>
       </c>
       <c r="G5" t="n">
-        <v>94475.25086559013</v>
+        <v>94475.25086559015</v>
       </c>
       <c r="H5" t="n">
         <v>94475.25086559013</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132297.3598259938</v>
+        <v>132297.3598259941</v>
       </c>
       <c r="C6" t="n">
-        <v>213066.7913575416</v>
+        <v>213066.7913575415</v>
       </c>
       <c r="D6" t="n">
-        <v>213066.7913575409</v>
+        <v>213066.7913575417</v>
       </c>
       <c r="E6" t="n">
-        <v>-621559.1660048617</v>
+        <v>-622362.4871102663</v>
       </c>
       <c r="F6" t="n">
-        <v>450887.3640561664</v>
+        <v>450084.0429507621</v>
       </c>
       <c r="G6" t="n">
-        <v>450887.3640561662</v>
+        <v>450084.0429507618</v>
       </c>
       <c r="H6" t="n">
-        <v>450887.3640561663</v>
+        <v>450084.0429507619</v>
       </c>
       <c r="I6" t="n">
-        <v>450887.3640561663</v>
+        <v>450084.0429507619</v>
       </c>
       <c r="J6" t="n">
-        <v>387827.4214570603</v>
+        <v>387024.1003516555</v>
       </c>
       <c r="K6" t="n">
-        <v>450887.3640561664</v>
+        <v>450084.0429507622</v>
       </c>
       <c r="L6" t="n">
-        <v>450887.3640561664</v>
+        <v>450084.0429507621</v>
       </c>
       <c r="M6" t="n">
-        <v>211032.4371533906</v>
+        <v>210229.116047986</v>
       </c>
       <c r="N6" t="n">
-        <v>450887.3640561664</v>
+        <v>450084.042950762</v>
       </c>
       <c r="O6" t="n">
-        <v>450887.3640561661</v>
+        <v>450084.042950762</v>
       </c>
       <c r="P6" t="n">
-        <v>450887.3640561662</v>
+        <v>450084.0429507622</v>
       </c>
     </row>
   </sheetData>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>1203.4985463646</v>
+        <v>1203.498546364601</v>
       </c>
       <c r="F4" t="n">
-        <v>1203.4985463646</v>
+        <v>1203.498546364601</v>
       </c>
       <c r="G4" t="n">
-        <v>1203.4985463646</v>
+        <v>1203.498546364601</v>
       </c>
       <c r="H4" t="n">
         <v>1203.4985463646</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.4842574869413</v>
+        <v>962.4842574869415</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.4842574869413</v>
+        <v>962.4842574869415</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>195.8453169412958</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5457301614682</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27423,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>118.8299955175883</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>92.27420085716901</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195525</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>192.9509344611737</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>23.31655911207891</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27760,7 +27760,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>106.2438383882965</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>207.6911821043308</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>181.9207275776204</v>
-      </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27903,10 +27903,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.81323866588119</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27.26179070270006</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X10" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K11" t="n">
         <v>603.7582726400192</v>
@@ -35418,22 +35418,22 @@
         <v>801.8201994534743</v>
       </c>
       <c r="M11" t="n">
-        <v>908.9537544610312</v>
+        <v>587.6077340130917</v>
       </c>
       <c r="N11" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772984</v>
       </c>
       <c r="O11" t="n">
         <v>812.587214318373</v>
       </c>
       <c r="P11" t="n">
-        <v>343.9045361662998</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R11" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>71.74208508315763</v>
       </c>
       <c r="K12" t="n">
-        <v>210.7025160073644</v>
+        <v>201.562917717219</v>
       </c>
       <c r="L12" t="n">
-        <v>688.6570081945405</v>
+        <v>317.8166628910813</v>
       </c>
       <c r="M12" t="n">
         <v>390.4294472435426</v>
@@ -35506,10 +35506,10 @@
         <v>357.4898064952853</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3887368298483</v>
+        <v>437.2913926876041</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K14" t="n">
         <v>603.7582726400192</v>
       </c>
       <c r="L14" t="n">
-        <v>490.2552802985098</v>
+        <v>801.8201994534743</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9537544610312</v>
+        <v>587.6077340130917</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772984</v>
       </c>
       <c r="O14" t="n">
         <v>812.587214318373</v>
@@ -35667,10 +35667,10 @@
         <v>655.4694553212641</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R14" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>357.4898064952853</v>
       </c>
       <c r="P15" t="n">
-        <v>585.8515054697855</v>
+        <v>437.2913926876041</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.836033650102</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K17" t="n">
-        <v>603.7582726400192</v>
+        <v>379.179026611483</v>
       </c>
       <c r="L17" t="n">
         <v>801.8201994534743</v>
@@ -35901,13 +35901,13 @@
         <v>812.587214318373</v>
       </c>
       <c r="P17" t="n">
-        <v>343.9045361662998</v>
+        <v>333.6707471497814</v>
       </c>
       <c r="Q17" t="n">
         <v>201.9134950536219</v>
       </c>
       <c r="R17" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K18" t="n">
-        <v>201.562917717219</v>
+        <v>455.4518259704147</v>
       </c>
       <c r="L18" t="n">
         <v>317.8166628910813</v>
@@ -35980,10 +35980,10 @@
         <v>357.4898064952853</v>
       </c>
       <c r="P18" t="n">
-        <v>585.8515054697855</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.836033650102</v>
+        <v>128.3188586964346</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K20" t="n">
         <v>603.7582726400192</v>
@@ -36129,22 +36129,22 @@
         <v>801.8201994534743</v>
       </c>
       <c r="M20" t="n">
-        <v>908.9537544610312</v>
+        <v>587.607734013091</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772984</v>
       </c>
       <c r="O20" t="n">
         <v>812.587214318373</v>
       </c>
       <c r="P20" t="n">
-        <v>343.9045361662998</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R20" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K21" t="n">
-        <v>201.562917717219</v>
+        <v>455.4518259704147</v>
       </c>
       <c r="L21" t="n">
         <v>317.8166628910813</v>
@@ -36211,7 +36211,7 @@
         <v>390.4294472435426</v>
       </c>
       <c r="N21" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365836</v>
       </c>
       <c r="O21" t="n">
         <v>357.4898064952853</v>
@@ -36360,28 +36360,28 @@
         <v>321.4657473671655</v>
       </c>
       <c r="K23" t="n">
-        <v>279.6128600688545</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L23" t="n">
         <v>801.8201994534743</v>
       </c>
       <c r="M23" t="n">
-        <v>908.9537544610312</v>
+        <v>587.607734013091</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772984</v>
       </c>
       <c r="O23" t="n">
         <v>812.587214318373</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6707471497814</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.1960814692321</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R23" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K24" t="n">
-        <v>201.562917717219</v>
+        <v>455.4518259704147</v>
       </c>
       <c r="L24" t="n">
         <v>317.8166628910813</v>
       </c>
       <c r="M24" t="n">
-        <v>770.4093908371474</v>
+        <v>390.4294472435426</v>
       </c>
       <c r="N24" t="n">
         <v>415.3171397365836</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K26" t="n">
-        <v>279.6128600688545</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L26" t="n">
         <v>801.8201994534743</v>
       </c>
       <c r="M26" t="n">
-        <v>908.9537544610312</v>
+        <v>587.607734013091</v>
       </c>
       <c r="N26" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772984</v>
       </c>
       <c r="O26" t="n">
         <v>812.587214318373</v>
@@ -36615,10 +36615,10 @@
         <v>655.4694553212641</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R26" t="n">
-        <v>43.76008970388872</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K27" t="n">
-        <v>201.562917717219</v>
+        <v>245.3745382345657</v>
       </c>
       <c r="L27" t="n">
         <v>317.8166628910813</v>
       </c>
       <c r="M27" t="n">
-        <v>770.4093908371474</v>
+        <v>390.4294472435426</v>
       </c>
       <c r="N27" t="n">
         <v>415.3171397365836</v>
@@ -36694,7 +36694,7 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K29" t="n">
-        <v>603.7582726400192</v>
+        <v>379.1790266114812</v>
       </c>
       <c r="L29" t="n">
         <v>801.8201994534743</v>
@@ -36849,13 +36849,13 @@
         <v>812.587214318373</v>
       </c>
       <c r="P29" t="n">
-        <v>343.9045361662998</v>
+        <v>333.6707471497814</v>
       </c>
       <c r="Q29" t="n">
         <v>201.9134950536219</v>
       </c>
       <c r="R29" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>357.4898064952853</v>
       </c>
       <c r="P30" t="n">
-        <v>521.2776450830443</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K32" t="n">
         <v>603.7582726400192</v>
@@ -37077,7 +37077,7 @@
         <v>801.8201994534743</v>
       </c>
       <c r="M32" t="n">
-        <v>908.9537544610312</v>
+        <v>684.3745084324943</v>
       </c>
       <c r="N32" t="n">
         <v>908.8817809892826</v>
@@ -37086,13 +37086,13 @@
         <v>812.587214318373</v>
       </c>
       <c r="P32" t="n">
-        <v>343.9045361662998</v>
+        <v>333.6707471497814</v>
       </c>
       <c r="Q32" t="n">
         <v>201.9134950536219</v>
       </c>
       <c r="R32" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K33" t="n">
         <v>201.562917717219</v>
@@ -37159,10 +37159,10 @@
         <v>390.4294472435426</v>
       </c>
       <c r="N33" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365836</v>
       </c>
       <c r="O33" t="n">
-        <v>357.4898064952853</v>
+        <v>611.3787147484811</v>
       </c>
       <c r="P33" t="n">
         <v>267.3887368298483</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>321.4657473671655</v>
+        <v>152.3691321950917</v>
       </c>
       <c r="K35" t="n">
         <v>603.7582726400192</v>
@@ -37314,22 +37314,22 @@
         <v>801.8201994534743</v>
       </c>
       <c r="M35" t="n">
-        <v>459.4402209681987</v>
+        <v>908.9537544610312</v>
       </c>
       <c r="N35" t="n">
-        <v>599.7023696221911</v>
+        <v>908.8817809892826</v>
       </c>
       <c r="O35" t="n">
         <v>812.587214318373</v>
       </c>
       <c r="P35" t="n">
-        <v>655.4694553212641</v>
+        <v>343.9045361662998</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.2284857135265</v>
+        <v>201.9134950536219</v>
       </c>
       <c r="R35" t="n">
-        <v>96.8960161606708</v>
+        <v>31.17959628768836</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K36" t="n">
-        <v>201.562917717219</v>
+        <v>245.3745382345657</v>
       </c>
       <c r="L36" t="n">
         <v>317.8166628910813</v>
       </c>
       <c r="M36" t="n">
-        <v>770.4093908371474</v>
+        <v>390.4294472435426</v>
       </c>
       <c r="N36" t="n">
         <v>415.3171397365836</v>
@@ -37405,7 +37405,7 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K38" t="n">
         <v>603.7582726400192</v>
@@ -37551,22 +37551,22 @@
         <v>801.8201994534743</v>
       </c>
       <c r="M38" t="n">
-        <v>459.4402209681987</v>
+        <v>908.9537544610312</v>
       </c>
       <c r="N38" t="n">
-        <v>908.8817809892826</v>
+        <v>530.9890173921037</v>
       </c>
       <c r="O38" t="n">
-        <v>812.587214318373</v>
+        <v>431.7870330556276</v>
       </c>
       <c r="P38" t="n">
         <v>655.4694553212641</v>
       </c>
       <c r="Q38" t="n">
-        <v>339.8621093914901</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R38" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K39" t="n">
-        <v>210.7025160073644</v>
+        <v>201.562917717219</v>
       </c>
       <c r="L39" t="n">
-        <v>688.6570081945405</v>
+        <v>317.8166628910813</v>
       </c>
       <c r="M39" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N39" t="n">
-        <v>415.3171397365836</v>
+        <v>459.1287602539303</v>
       </c>
       <c r="O39" t="n">
         <v>357.4898064952853</v>
@@ -37642,7 +37642,7 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K41" t="n">
         <v>603.7582726400192</v>
       </c>
       <c r="L41" t="n">
-        <v>801.8201994534743</v>
+        <v>384.1589849030238</v>
       </c>
       <c r="M41" t="n">
-        <v>908.9537544610312</v>
+        <v>567.9220241515575</v>
       </c>
       <c r="N41" t="n">
         <v>908.8817809892826</v>
@@ -37797,13 +37797,13 @@
         <v>812.587214318373</v>
       </c>
       <c r="P41" t="n">
-        <v>343.9045361662998</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R41" t="n">
-        <v>31.17959628768836</v>
+        <v>96.8960161606708</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>197.8331204235665</v>
       </c>
       <c r="K42" t="n">
-        <v>455.4518259704147</v>
+        <v>201.562917717219</v>
       </c>
       <c r="L42" t="n">
-        <v>317.8166628910813</v>
+        <v>361.6282834084281</v>
       </c>
       <c r="M42" t="n">
         <v>390.4294472435426</v>
@@ -37879,7 +37879,7 @@
         <v>267.3887368298483</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>321.4657473671655</v>
+        <v>152.3691321950917</v>
       </c>
       <c r="K44" t="n">
-        <v>603.7582726400192</v>
+        <v>279.6128600688545</v>
       </c>
       <c r="L44" t="n">
         <v>801.8201994534743</v>
       </c>
       <c r="M44" t="n">
-        <v>459.4402209681987</v>
+        <v>855.8178280042496</v>
       </c>
       <c r="N44" t="n">
-        <v>812.017360282095</v>
+        <v>908.8817809892826</v>
       </c>
       <c r="O44" t="n">
         <v>812.587214318373</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K45" t="n">
-        <v>201.562917717219</v>
+        <v>455.4518259704147</v>
       </c>
       <c r="L45" t="n">
         <v>317.8166628910813</v>
@@ -38113,10 +38113,10 @@
         <v>357.4898064952853</v>
       </c>
       <c r="P45" t="n">
-        <v>585.8515054697855</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.836033650102</v>
+        <v>128.3188586964346</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
